--- a/data/1/СИиЕ/!печать/З/Номера зачеток СИиЕ заочное поступившие на 3 курс.xlsx
+++ b/data/1/СИиЕ/!печать/З/Номера зачеток СИиЕ заочное поступившие на 3 курс.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Студенческие\2023-24\СИиЕ\!печать\З\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwlo\zachetker\data-sharer\data\1\СИиЕ\!печать\З\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179D3C61-23DF-4672-BD6D-4DEA2385B893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5007F87-83DB-473D-AF33-65ADAEE6B614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="131" sheetId="2" r:id="rId1"/>
@@ -40,9 +40,6 @@
     <t>ФИО</t>
   </si>
   <si>
-    <t>№ студенческого билета, зачетки</t>
-  </si>
-  <si>
     <t>Дата</t>
   </si>
   <si>
@@ -380,6 +377,9 @@
   </si>
   <si>
     <t>0814003</t>
+  </si>
+  <si>
+    <t>N_ZACHET</t>
   </si>
 </sst>
 </file>
@@ -821,28 +821,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -852,7 +852,7 @@
       <c r="D2" s="1"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -860,262 +860,262 @@
         <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="G4" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="G5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="G6" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="G7" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="G8" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="G9" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="G10" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="G11" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="G12" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="G14" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="G15" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I15" s="10"/>
     </row>
@@ -1131,29 +1131,29 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -1161,7 +1161,7 @@
       <c r="D2" s="1"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1169,122 +1169,122 @@
         <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="G4" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="G5" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="G6" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="G7" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="G8" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I8" s="10"/>
     </row>
@@ -1299,29 +1299,29 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -1329,7 +1329,7 @@
       <c r="D2" s="1"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1337,142 +1337,142 @@
         <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="G4" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="G6" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="G7" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="G8" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="G9" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I9" s="10"/>
     </row>
@@ -1484,32 +1484,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -1517,7 +1517,7 @@
       <c r="D2" s="1"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1525,265 +1525,265 @@
         <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="G4" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="G5" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="G6" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="G8" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="G9" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="G10" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="G11" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="G12" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="G13" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="11">
+        <v>231463</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C15" s="11">
-        <v>231463</v>
+        <v>231461</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="11">
-        <v>231461</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/data/1/СИиЕ/!печать/З/Номера зачеток СИиЕ заочное поступившие на 3 курс.xlsx
+++ b/data/1/СИиЕ/!печать/З/Номера зачеток СИиЕ заочное поступившие на 3 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwlo\zachetker\data-sharer\data\1\СИиЕ\!печать\З\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5007F87-83DB-473D-AF33-65ADAEE6B614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BCC0CD-0211-4DC1-B973-A55BA1CD3444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="131" sheetId="2" r:id="rId1"/>
@@ -23,16 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="119">
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>Заочное</t>
-  </si>
-  <si>
-    <t>СПФ СИиЕ</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="113">
   <si>
     <t>№ п/п</t>
   </si>
@@ -118,9 +109,6 @@
     <t>231405</t>
   </si>
   <si>
-    <t>132</t>
-  </si>
-  <si>
     <t>Блюдник Дарья Валерьевна</t>
   </si>
   <si>
@@ -151,9 +139,6 @@
     <t>231410</t>
   </si>
   <si>
-    <t>133</t>
-  </si>
-  <si>
     <t>Гарбацевич Дмитрий Анатольевич</t>
   </si>
   <si>
@@ -188,9 +173,6 @@
   </si>
   <si>
     <t>231416</t>
-  </si>
-  <si>
-    <t>134</t>
   </si>
   <si>
     <t>Госса Евгений Игоревич</t>
@@ -386,7 +368,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,13 +380,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -452,10 +427,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -470,9 +443,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -819,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -832,295 +802,280 @@
     <col min="3" max="3" width="22.6640625" customWidth="1"/>
     <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="22.88671875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="G2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="G3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="G4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="G5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="G6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="G7" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="H7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="G8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="G4" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" s="10" t="s">
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="G9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="G10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="G11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="G12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="G13" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="G5" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="G6" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="G7" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="G8" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>6</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="G9" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>7</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="G10" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="G11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <v>9</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="G12" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="G13" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
-        <v>11</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
-        <v>12</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="G15" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I15" s="10"/>
+      <c r="H13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1128,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1141,165 +1096,150 @@
     <col min="3" max="3" width="22.6640625" customWidth="1"/>
     <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="22.88671875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="G2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="G3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="G4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="B5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="G5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="G4" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="G5" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="G6" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="G7" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="G8" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="10"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="G6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1309,185 +1249,170 @@
     <col min="3" max="3" width="22.6640625" customWidth="1"/>
     <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="22.88671875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="G2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="G3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="G4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="B5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="G5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="B6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="G6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="G4" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="G5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="G6" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="G7" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="G8" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>6</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="G9" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" s="10"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="G7" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1497,297 +1422,282 @@
     <col min="3" max="3" width="22.6640625" customWidth="1"/>
     <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="22.88671875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="G2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="G3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="G4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="B5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="G5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="B6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="G6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="G4" s="7" t="s">
+      <c r="B7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="G7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="G8" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="G5" s="7" t="s">
+      <c r="H8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="G9" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="G6" s="7" t="s">
+      <c r="H9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="G10" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="G7" s="7" t="s">
+      <c r="H10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="G11" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="G8" s="7" t="s">
+      <c r="H11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>6</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="G9" s="7" t="s">
+      <c r="C12" s="8">
+        <v>231463</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>7</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="G10" s="7" t="s">
+      <c r="I12" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="G11" s="7" t="s">
+      <c r="C13" s="8">
+        <v>231461</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <v>9</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="G12" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="G13" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="11">
-        <v>231463</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" s="11">
-        <v>231461</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>114</v>
+      <c r="H13" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>